--- a/static/uberkraft_routes.xlsx
+++ b/static/uberkraft_routes.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28820" yWindow="3460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>Route</t>
   </si>
@@ -95,9 +98,6 @@
     <t>/rma</t>
   </si>
   <si>
-    <t>Restricted Page?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -198,13 +198,43 @@
   </si>
   <si>
     <t>xlat.html</t>
+  </si>
+  <si>
+    <t>Restricted?</t>
+  </si>
+  <si>
+    <t>Works?</t>
+  </si>
+  <si>
+    <t>LP?</t>
+  </si>
+  <si>
+    <t>LP for Language?</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Handler</t>
+  </si>
+  <si>
+    <t>LP for Login Handling?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Need to delete userid session variable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,8 +243,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,17 +296,332 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -271,6 +629,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L29" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A1:L29"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Route" dataDxfId="13"/>
+    <tableColumn id="12" name="Type" dataDxfId="0"/>
+    <tableColumn id="8" name="Works?" dataDxfId="4"/>
+    <tableColumn id="9" name="LP?" dataDxfId="3"/>
+    <tableColumn id="10" name="LP for Login Handling?" dataDxfId="2"/>
+    <tableColumn id="11" name="LP for Language?" dataDxfId="1"/>
+    <tableColumn id="2" name="Restricted?" dataDxfId="12"/>
+    <tableColumn id="3" name="Condition" dataDxfId="11"/>
+    <tableColumn id="4" name="Re-Directs To" dataDxfId="10"/>
+    <tableColumn id="5" name="Renders" dataDxfId="9"/>
+    <tableColumn id="6" name="SQL" dataDxfId="8"/>
+    <tableColumn id="7" name="Notes" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,366 +915,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="L17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="J25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="K25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="K26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="J28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="E28" s="4" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="J29" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>